--- a/ResultadoEleicoesDistritos/R. A. AÇORES_PRAIA DA VITÓRIA.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_PRAIA DA VITÓRIA.xlsx
@@ -597,64 +597,64 @@
         <v>5897</v>
       </c>
       <c r="H2" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I2" t="n">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J2" t="n">
-        <v>2367</v>
+        <v>2410</v>
       </c>
       <c r="K2" t="n">
         <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="M2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" t="n">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="T2" t="n">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="U2" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" t="n">
-        <v>3795</v>
+        <v>3806</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3792</v>
+        <v>3693</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="AA2" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
